--- a/Code/Results/Cases/Case_0_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015977591568295</v>
+        <v>1.050210818428238</v>
       </c>
       <c r="D2">
-        <v>1.030525845176032</v>
+        <v>1.060202080594585</v>
       </c>
       <c r="E2">
-        <v>1.02882177437334</v>
+        <v>1.057551122551956</v>
       </c>
       <c r="F2">
-        <v>1.036512905538823</v>
+        <v>1.068852511993655</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053821786681449</v>
+        <v>1.039436020315019</v>
       </c>
       <c r="J2">
-        <v>1.037690696083821</v>
+        <v>1.055245174887831</v>
       </c>
       <c r="K2">
-        <v>1.041575676860801</v>
+        <v>1.062929502774378</v>
       </c>
       <c r="L2">
-        <v>1.039893664280153</v>
+        <v>1.060285782905895</v>
       </c>
       <c r="M2">
-        <v>1.047485956536317</v>
+        <v>1.071556585193251</v>
       </c>
       <c r="N2">
-        <v>1.039164335897047</v>
+        <v>1.056743744074485</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021208397104153</v>
+        <v>1.051299081216518</v>
       </c>
       <c r="D3">
-        <v>1.035237125097371</v>
+        <v>1.061234156569738</v>
       </c>
       <c r="E3">
-        <v>1.033287499497727</v>
+        <v>1.058533324322686</v>
       </c>
       <c r="F3">
-        <v>1.041481218319254</v>
+        <v>1.069955003521541</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055227875727951</v>
+        <v>1.039619867726666</v>
       </c>
       <c r="J3">
-        <v>1.04113713541206</v>
+        <v>1.055982350358465</v>
       </c>
       <c r="K3">
-        <v>1.045438150329953</v>
+        <v>1.063775408021388</v>
       </c>
       <c r="L3">
-        <v>1.043511465205484</v>
+        <v>1.061081415605678</v>
       </c>
       <c r="M3">
-        <v>1.051609486095682</v>
+        <v>1.072474423361711</v>
       </c>
       <c r="N3">
-        <v>1.042615669564444</v>
+        <v>1.057481966418842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024514597774642</v>
+        <v>1.05200300486937</v>
       </c>
       <c r="D4">
-        <v>1.038220025216346</v>
+        <v>1.061902051603675</v>
       </c>
       <c r="E4">
-        <v>1.036116190993584</v>
+        <v>1.059169050044918</v>
       </c>
       <c r="F4">
-        <v>1.044628663805321</v>
+        <v>1.070668715849095</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056099058797719</v>
+        <v>1.039736596109165</v>
       </c>
       <c r="J4">
-        <v>1.043311346549064</v>
+        <v>1.05645851704668</v>
       </c>
       <c r="K4">
-        <v>1.047878054427502</v>
+        <v>1.064322230432205</v>
       </c>
       <c r="L4">
-        <v>1.045797422649177</v>
+        <v>1.06159580086049</v>
       </c>
       <c r="M4">
-        <v>1.054216721000001</v>
+        <v>1.073068056723037</v>
       </c>
       <c r="N4">
-        <v>1.044792968330648</v>
+        <v>1.057958809318371</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025886479345121</v>
+        <v>1.052298873619003</v>
       </c>
       <c r="D5">
-        <v>1.03945893012171</v>
+        <v>1.062182851942739</v>
       </c>
       <c r="E5">
-        <v>1.03729134396323</v>
+        <v>1.059436350899425</v>
       </c>
       <c r="F5">
-        <v>1.045936349586603</v>
+        <v>1.070968838574396</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056456273370215</v>
+        <v>1.03978513368665</v>
       </c>
       <c r="J5">
-        <v>1.044212477422919</v>
+        <v>1.056658497429004</v>
       </c>
       <c r="K5">
-        <v>1.048890087722602</v>
+        <v>1.064551986369305</v>
       </c>
       <c r="L5">
-        <v>1.046745746567391</v>
+        <v>1.061811942357468</v>
       </c>
       <c r="M5">
-        <v>1.055298746089816</v>
+        <v>1.073317555565682</v>
       </c>
       <c r="N5">
-        <v>1.045695378913705</v>
+        <v>1.058159073695777</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02611578692066</v>
+        <v>1.052348547730699</v>
       </c>
       <c r="D6">
-        <v>1.039666078722125</v>
+        <v>1.062230000562473</v>
       </c>
       <c r="E6">
-        <v>1.037487850296406</v>
+        <v>1.059481234330429</v>
       </c>
       <c r="F6">
-        <v>1.046155024543826</v>
+        <v>1.071019235074505</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056515727908131</v>
+        <v>1.039793251972835</v>
       </c>
       <c r="J6">
-        <v>1.044363037432186</v>
+        <v>1.056692063276747</v>
       </c>
       <c r="K6">
-        <v>1.049059223391192</v>
+        <v>1.064590555879317</v>
       </c>
       <c r="L6">
-        <v>1.046904243329231</v>
+        <v>1.061848227240975</v>
       </c>
       <c r="M6">
-        <v>1.055479613672299</v>
+        <v>1.073359443725215</v>
       </c>
       <c r="N6">
-        <v>1.045846152735455</v>
+        <v>1.058192687210874</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024532998876588</v>
+        <v>1.052006958520412</v>
       </c>
       <c r="D7">
-        <v>1.03823663811017</v>
+        <v>1.061905803603945</v>
       </c>
       <c r="E7">
-        <v>1.036131947853159</v>
+        <v>1.059172621568264</v>
       </c>
       <c r="F7">
-        <v>1.044646197261917</v>
+        <v>1.070672725797078</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056103867116234</v>
+        <v>1.0397372467735</v>
       </c>
       <c r="J7">
-        <v>1.043323437622927</v>
+        <v>1.056461189980791</v>
       </c>
       <c r="K7">
-        <v>1.047891630450374</v>
+        <v>1.064325300946261</v>
       </c>
       <c r="L7">
-        <v>1.045810143463904</v>
+        <v>1.061598689370751</v>
       </c>
       <c r="M7">
-        <v>1.054231233613813</v>
+        <v>1.073071390792915</v>
       </c>
       <c r="N7">
-        <v>1.044805076575222</v>
+        <v>1.057961486048355</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017762078160386</v>
+        <v>1.050578654961054</v>
       </c>
       <c r="D8">
-        <v>1.032132003193299</v>
+        <v>1.060550860311912</v>
       </c>
       <c r="E8">
-        <v>1.030343949590079</v>
+        <v>1.057883025751161</v>
       </c>
       <c r="F8">
-        <v>1.038206314671763</v>
+        <v>1.069225036474263</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054305122109893</v>
+        <v>1.039498614564091</v>
       </c>
       <c r="J8">
-        <v>1.038867293565863</v>
+        <v>1.055494479616423</v>
       </c>
       <c r="K8">
-        <v>1.042893629545514</v>
+        <v>1.063215491063445</v>
       </c>
       <c r="L8">
-        <v>1.041128000273888</v>
+        <v>1.060554762181242</v>
       </c>
       <c r="M8">
-        <v>1.048892479992249</v>
+        <v>1.071866828574561</v>
       </c>
       <c r="N8">
-        <v>1.040342604282471</v>
+        <v>1.056993402844387</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005194010725859</v>
+        <v>1.048059831901262</v>
       </c>
       <c r="D9">
-        <v>1.020843437569916</v>
+        <v>1.058163841966133</v>
       </c>
       <c r="E9">
-        <v>1.019651293325939</v>
+        <v>1.055611947530156</v>
       </c>
       <c r="F9">
-        <v>1.026311980000729</v>
+        <v>1.066676528587947</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050828757862252</v>
+        <v>1.039061027765743</v>
       </c>
       <c r="J9">
-        <v>1.030564678949645</v>
+        <v>1.053784622437176</v>
       </c>
       <c r="K9">
-        <v>1.033607159727959</v>
+        <v>1.061255774066336</v>
       </c>
       <c r="L9">
-        <v>1.03243338939821</v>
+        <v>1.058711848424793</v>
       </c>
       <c r="M9">
-        <v>1.038992115450929</v>
+        <v>1.069742179089864</v>
       </c>
       <c r="N9">
-        <v>1.032028199001175</v>
+        <v>1.055281117471822</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.996333097871926</v>
+        <v>1.046379266536783</v>
       </c>
       <c r="D10">
-        <v>1.012916889907836</v>
+        <v>1.056572881541527</v>
       </c>
       <c r="E10">
-        <v>1.012150717648215</v>
+        <v>1.054098816381255</v>
       </c>
       <c r="F10">
-        <v>1.0179693132051</v>
+        <v>1.064979210005636</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04828870934075</v>
+        <v>1.038757836695275</v>
       </c>
       <c r="J10">
-        <v>1.024692961232825</v>
+        <v>1.05264042638499</v>
       </c>
       <c r="K10">
-        <v>1.027056777671226</v>
+        <v>1.05994655082565</v>
       </c>
       <c r="L10">
-        <v>1.026303998844893</v>
+        <v>1.057480972336878</v>
       </c>
       <c r="M10">
-        <v>1.032021532575067</v>
+        <v>1.068324367131198</v>
       </c>
       <c r="N10">
-        <v>1.026148142771701</v>
+        <v>1.054135296530001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9923684981587898</v>
+        <v>1.045651236081648</v>
       </c>
       <c r="D11">
-        <v>1.009378806774276</v>
+        <v>1.055884069386065</v>
       </c>
       <c r="E11">
-        <v>1.008804681746152</v>
+        <v>1.053443833431306</v>
       </c>
       <c r="F11">
-        <v>1.014247600545646</v>
+        <v>1.064244651550685</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047132055794219</v>
+        <v>1.038623835825981</v>
       </c>
       <c r="J11">
-        <v>1.022062239238526</v>
+        <v>1.052143959046029</v>
       </c>
       <c r="K11">
-        <v>1.024125993735694</v>
+        <v>1.059378991469379</v>
       </c>
       <c r="L11">
-        <v>1.023562443138246</v>
+        <v>1.056947451977429</v>
       </c>
       <c r="M11">
-        <v>1.028905738516446</v>
+        <v>1.067710111532131</v>
       </c>
       <c r="N11">
-        <v>1.023513684850422</v>
+        <v>1.053638124150473</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9908754227322855</v>
+        <v>1.045380762163585</v>
       </c>
       <c r="D12">
-        <v>1.008047702358971</v>
+        <v>1.05562822639268</v>
       </c>
       <c r="E12">
-        <v>1.007546128049621</v>
+        <v>1.053200575542069</v>
       </c>
       <c r="F12">
-        <v>1.012847720203198</v>
+        <v>1.063971862477444</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046693513865761</v>
+        <v>1.038573653950448</v>
       </c>
       <c r="J12">
-        <v>1.021071034971999</v>
+        <v>1.051959395169657</v>
       </c>
       <c r="K12">
-        <v>1.023022328334561</v>
+        <v>1.059168075801737</v>
       </c>
       <c r="L12">
-        <v>1.022530170214311</v>
+        <v>1.056749197100555</v>
       </c>
       <c r="M12">
-        <v>1.027732849185931</v>
+        <v>1.067481899369457</v>
       </c>
       <c r="N12">
-        <v>1.022521072960143</v>
+        <v>1.053453298172227</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9911966389989475</v>
+        <v>1.045438782056388</v>
       </c>
       <c r="D13">
-        <v>1.008334010671947</v>
+        <v>1.055683105019471</v>
       </c>
       <c r="E13">
-        <v>1.007816817704398</v>
+        <v>1.053252753740268</v>
       </c>
       <c r="F13">
-        <v>1.013148807723629</v>
+        <v>1.064030374009304</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046787992154641</v>
+        <v>1.038584436591699</v>
       </c>
       <c r="J13">
-        <v>1.021284300124298</v>
+        <v>1.051998991709561</v>
       </c>
       <c r="K13">
-        <v>1.023259763502597</v>
+        <v>1.059213322403984</v>
       </c>
       <c r="L13">
-        <v>1.022752240399843</v>
+        <v>1.056791727141589</v>
       </c>
       <c r="M13">
-        <v>1.027985156611243</v>
+        <v>1.067530853931034</v>
       </c>
       <c r="N13">
-        <v>1.022734640973421</v>
+        <v>1.053492950943759</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9922455047974214</v>
+        <v>1.04562887966765</v>
       </c>
       <c r="D14">
-        <v>1.0092691281712</v>
+        <v>1.055862921070056</v>
       </c>
       <c r="E14">
-        <v>1.008700974953101</v>
+        <v>1.05342372500692</v>
       </c>
       <c r="F14">
-        <v>1.014132248787739</v>
+        <v>1.064222101525702</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047095989817377</v>
+        <v>1.03861969609798</v>
       </c>
       <c r="J14">
-        <v>1.021980597086315</v>
+        <v>1.052128706076677</v>
       </c>
       <c r="K14">
-        <v>1.024035076456629</v>
+        <v>1.059361559131876</v>
       </c>
       <c r="L14">
-        <v>1.023477404267233</v>
+        <v>1.056931065833899</v>
       </c>
       <c r="M14">
-        <v>1.028809109687146</v>
+        <v>1.067691248470262</v>
       </c>
       <c r="N14">
-        <v>1.02343192675699</v>
+        <v>1.053622849520155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9928889970259168</v>
+        <v>1.045745998301209</v>
       </c>
       <c r="D15">
-        <v>1.009843013751715</v>
+        <v>1.055973713326898</v>
       </c>
       <c r="E15">
-        <v>1.009243625681499</v>
+        <v>1.053529070278496</v>
       </c>
       <c r="F15">
-        <v>1.01473583131868</v>
+        <v>1.064340238940893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047284564979963</v>
+        <v>1.038641366588165</v>
       </c>
       <c r="J15">
-        <v>1.022407724104562</v>
+        <v>1.052208606995359</v>
       </c>
       <c r="K15">
-        <v>1.024510752381663</v>
+        <v>1.059452879569228</v>
       </c>
       <c r="L15">
-        <v>1.023922330030267</v>
+        <v>1.057016906177145</v>
       </c>
       <c r="M15">
-        <v>1.029314686404445</v>
+        <v>1.067790066171763</v>
       </c>
       <c r="N15">
-        <v>1.023859660344596</v>
+        <v>1.053702863907307</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9965934190243542</v>
+        <v>1.046427576409644</v>
       </c>
       <c r="D16">
-        <v>1.013149387325044</v>
+        <v>1.056618597498097</v>
       </c>
       <c r="E16">
-        <v>1.012370635804661</v>
+        <v>1.054142289923851</v>
       </c>
       <c r="F16">
-        <v>1.018213920719298</v>
+        <v>1.065027968466358</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048364244590705</v>
+        <v>1.038766672664798</v>
       </c>
       <c r="J16">
-        <v>1.024865629457849</v>
+        <v>1.052673353725664</v>
       </c>
       <c r="K16">
-        <v>1.027249223305079</v>
+        <v>1.059984204016047</v>
       </c>
       <c r="L16">
-        <v>1.026484037384699</v>
+        <v>1.057516368879841</v>
       </c>
       <c r="M16">
-        <v>1.032226188637353</v>
+        <v>1.068365126209425</v>
       </c>
       <c r="N16">
-        <v>1.026321056205409</v>
+        <v>1.054168270631276</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9988820480244027</v>
+        <v>1.046855022267725</v>
       </c>
       <c r="D17">
-        <v>1.015194370934102</v>
+        <v>1.057023138749745</v>
       </c>
       <c r="E17">
-        <v>1.014305194202832</v>
+        <v>1.054527003365023</v>
       </c>
       <c r="F17">
-        <v>1.020365660299318</v>
+        <v>1.065459467754164</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049026037250577</v>
+        <v>1.03884454656916</v>
       </c>
       <c r="J17">
-        <v>1.026383255370596</v>
+        <v>1.052964603128968</v>
       </c>
       <c r="K17">
-        <v>1.028941131439365</v>
+        <v>1.060317313798563</v>
       </c>
       <c r="L17">
-        <v>1.028066965960418</v>
+        <v>1.057829523224666</v>
       </c>
       <c r="M17">
-        <v>1.034025785984783</v>
+        <v>1.068725756740976</v>
       </c>
       <c r="N17">
-        <v>1.027840837321028</v>
+        <v>1.054459933642139</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000204728997731</v>
+        <v>1.047104311973793</v>
       </c>
       <c r="D18">
-        <v>1.016377035603016</v>
+        <v>1.057259108952306</v>
       </c>
       <c r="E18">
-        <v>1.015424177516612</v>
+        <v>1.054751420743454</v>
       </c>
       <c r="F18">
-        <v>1.021610264892058</v>
+        <v>1.065711191795156</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049406596788384</v>
+        <v>1.038889706920864</v>
       </c>
       <c r="J18">
-        <v>1.027260004148327</v>
+        <v>1.053134385292325</v>
       </c>
       <c r="K18">
-        <v>1.029918943578982</v>
+        <v>1.060511547712552</v>
       </c>
       <c r="L18">
-        <v>1.028981876900831</v>
+        <v>1.058012128481773</v>
       </c>
       <c r="M18">
-        <v>1.035066119225268</v>
+        <v>1.068936074245692</v>
       </c>
       <c r="N18">
-        <v>1.028718831182587</v>
+        <v>1.054629956915643</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00065368959697</v>
+        <v>1.047189307876373</v>
       </c>
       <c r="D19">
-        <v>1.016778602924761</v>
+        <v>1.057339570077288</v>
       </c>
       <c r="E19">
-        <v>1.015804152440693</v>
+        <v>1.054827944754323</v>
       </c>
       <c r="F19">
-        <v>1.022032897765572</v>
+        <v>1.065797029606759</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049535443766489</v>
+        <v>1.038905060956392</v>
       </c>
       <c r="J19">
-        <v>1.027557541096029</v>
+        <v>1.053192259887189</v>
       </c>
       <c r="K19">
-        <v>1.030250842170544</v>
+        <v>1.06057776571037</v>
       </c>
       <c r="L19">
-        <v>1.029292438743898</v>
+        <v>1.058074383274775</v>
       </c>
       <c r="M19">
-        <v>1.035419287590031</v>
+        <v>1.069007781625468</v>
       </c>
       <c r="N19">
-        <v>1.029016790666883</v>
+        <v>1.054687913699069</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9986377742881695</v>
+        <v>1.046809164711316</v>
       </c>
       <c r="D20">
-        <v>1.014976019319562</v>
+        <v>1.056979734461405</v>
       </c>
       <c r="E20">
-        <v>1.014098614372669</v>
+        <v>1.054485725129512</v>
       </c>
       <c r="F20">
-        <v>1.020135889159411</v>
+        <v>1.065413168055008</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04895559980304</v>
+        <v>1.038836218552869</v>
       </c>
       <c r="J20">
-        <v>1.026221308634239</v>
+        <v>1.052933365032641</v>
       </c>
       <c r="K20">
-        <v>1.02876054767138</v>
+        <v>1.060281580828596</v>
       </c>
       <c r="L20">
-        <v>1.027898005475635</v>
+        <v>1.057795930144977</v>
       </c>
       <c r="M20">
-        <v>1.033833678707389</v>
+        <v>1.068687067827693</v>
       </c>
       <c r="N20">
-        <v>1.027678660601729</v>
+        <v>1.054428651184132</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9919372149751617</v>
+        <v>1.045572902072687</v>
       </c>
       <c r="D21">
-        <v>1.008994234443485</v>
+        <v>1.055809969380782</v>
       </c>
       <c r="E21">
-        <v>1.008441053557104</v>
+        <v>1.053373377348804</v>
       </c>
       <c r="F21">
-        <v>1.013843141068316</v>
+        <v>1.064165640933652</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047005541304789</v>
+        <v>1.038609324312797</v>
       </c>
       <c r="J21">
-        <v>1.021775949081257</v>
+        <v>1.052090512675312</v>
       </c>
       <c r="K21">
-        <v>1.02380718857162</v>
+        <v>1.059317909840167</v>
       </c>
       <c r="L21">
-        <v>1.023264253013683</v>
+        <v>1.056890036316988</v>
       </c>
       <c r="M21">
-        <v>1.028566912745797</v>
+        <v>1.067644017665539</v>
       </c>
       <c r="N21">
-        <v>1.023226988128292</v>
+        <v>1.053584601879779</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9876053096082248</v>
+        <v>1.044795319298037</v>
       </c>
       <c r="D22">
-        <v>1.005134895473225</v>
+        <v>1.055074563952352</v>
       </c>
       <c r="E22">
-        <v>1.004792643216665</v>
+        <v>1.052674184931183</v>
       </c>
       <c r="F22">
-        <v>1.009784974579538</v>
+        <v>1.063381610302031</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045727705508786</v>
+        <v>1.038464306524302</v>
       </c>
       <c r="J22">
-        <v>1.018899325190318</v>
+        <v>1.051559688030377</v>
       </c>
       <c r="K22">
-        <v>1.02060531082162</v>
+        <v>1.058711439639191</v>
       </c>
       <c r="L22">
-        <v>1.020269751063295</v>
+        <v>1.056319992396624</v>
       </c>
       <c r="M22">
-        <v>1.02516504989475</v>
+        <v>1.066987919622891</v>
       </c>
       <c r="N22">
-        <v>1.020346279101474</v>
+        <v>1.053053023402962</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9899134607417144</v>
+        <v>1.04520755888352</v>
       </c>
       <c r="D23">
-        <v>1.007190483836059</v>
+        <v>1.055464409480088</v>
       </c>
       <c r="E23">
-        <v>1.006735717043321</v>
+        <v>1.053044822559139</v>
       </c>
       <c r="F23">
-        <v>1.011946296923939</v>
+        <v>1.063797207694063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04641015052388</v>
+        <v>1.038541406858838</v>
       </c>
       <c r="J23">
-        <v>1.020432295912671</v>
+        <v>1.051841172615302</v>
       </c>
       <c r="K23">
-        <v>1.022311285979502</v>
+        <v>1.059032995235095</v>
       </c>
       <c r="L23">
-        <v>1.021865160891039</v>
+        <v>1.056622228288166</v>
       </c>
       <c r="M23">
-        <v>1.02697733435584</v>
+        <v>1.067335757247066</v>
       </c>
       <c r="N23">
-        <v>1.021881426818087</v>
+        <v>1.053334907728285</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9987481888006335</v>
+        <v>1.046829885866417</v>
       </c>
       <c r="D24">
-        <v>1.015074714276407</v>
+        <v>1.056999346965659</v>
       </c>
       <c r="E24">
-        <v>1.014191987923239</v>
+        <v>1.054504376923717</v>
       </c>
       <c r="F24">
-        <v>1.02023974512137</v>
+        <v>1.065434088779083</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048987444276994</v>
+        <v>1.038839982434989</v>
       </c>
       <c r="J24">
-        <v>1.026294511469871</v>
+        <v>1.052947480488493</v>
       </c>
       <c r="K24">
-        <v>1.028842173605024</v>
+        <v>1.060297727215285</v>
       </c>
       <c r="L24">
-        <v>1.027974377298314</v>
+        <v>1.057811109573352</v>
       </c>
       <c r="M24">
-        <v>1.033920512518745</v>
+        <v>1.06870454978151</v>
       </c>
       <c r="N24">
-        <v>1.027751967393784</v>
+        <v>1.054442786685551</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00852393176565</v>
+        <v>1.048711244067414</v>
       </c>
       <c r="D25">
-        <v>1.023829059744604</v>
+        <v>1.058780875894403</v>
       </c>
       <c r="E25">
-        <v>1.022478049030721</v>
+        <v>1.056198914079027</v>
       </c>
       <c r="F25">
-        <v>1.029456202008656</v>
+        <v>1.067335081785196</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051765425648338</v>
+        <v>1.039176177023482</v>
       </c>
       <c r="J25">
-        <v>1.032767797815129</v>
+        <v>1.054227418195777</v>
       </c>
       <c r="K25">
-        <v>1.036068388690275</v>
+        <v>1.061762892061825</v>
       </c>
       <c r="L25">
-        <v>1.034737163004718</v>
+        <v>1.059188685772316</v>
       </c>
       <c r="M25">
-        <v>1.041613831400744</v>
+        <v>1.070291695217539</v>
       </c>
       <c r="N25">
-        <v>1.034234446548148</v>
+        <v>1.05572454205119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050210818428238</v>
+        <v>1.015977591568293</v>
       </c>
       <c r="D2">
-        <v>1.060202080594585</v>
+        <v>1.03052584517603</v>
       </c>
       <c r="E2">
-        <v>1.057551122551956</v>
+        <v>1.028821774373338</v>
       </c>
       <c r="F2">
-        <v>1.068852511993655</v>
+        <v>1.036512905538821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039436020315019</v>
+        <v>1.053821786681448</v>
       </c>
       <c r="J2">
-        <v>1.055245174887831</v>
+        <v>1.03769069608382</v>
       </c>
       <c r="K2">
-        <v>1.062929502774378</v>
+        <v>1.041575676860799</v>
       </c>
       <c r="L2">
-        <v>1.060285782905895</v>
+        <v>1.039893664280151</v>
       </c>
       <c r="M2">
-        <v>1.071556585193251</v>
+        <v>1.047485956536314</v>
       </c>
       <c r="N2">
-        <v>1.056743744074485</v>
+        <v>1.039164335897045</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051299081216518</v>
+        <v>1.021208397104152</v>
       </c>
       <c r="D3">
-        <v>1.061234156569738</v>
+        <v>1.035237125097371</v>
       </c>
       <c r="E3">
-        <v>1.058533324322686</v>
+        <v>1.033287499497727</v>
       </c>
       <c r="F3">
-        <v>1.069955003521541</v>
+        <v>1.041481218319253</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039619867726666</v>
+        <v>1.055227875727951</v>
       </c>
       <c r="J3">
-        <v>1.055982350358465</v>
+        <v>1.04113713541206</v>
       </c>
       <c r="K3">
-        <v>1.063775408021388</v>
+        <v>1.045438150329953</v>
       </c>
       <c r="L3">
-        <v>1.061081415605678</v>
+        <v>1.043511465205485</v>
       </c>
       <c r="M3">
-        <v>1.072474423361711</v>
+        <v>1.051609486095682</v>
       </c>
       <c r="N3">
-        <v>1.057481966418842</v>
+        <v>1.042615669564444</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05200300486937</v>
+        <v>1.024514597774641</v>
       </c>
       <c r="D4">
-        <v>1.061902051603675</v>
+        <v>1.038220025216346</v>
       </c>
       <c r="E4">
-        <v>1.059169050044918</v>
+        <v>1.036116190993583</v>
       </c>
       <c r="F4">
-        <v>1.070668715849095</v>
+        <v>1.044628663805321</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039736596109165</v>
+        <v>1.056099058797719</v>
       </c>
       <c r="J4">
-        <v>1.05645851704668</v>
+        <v>1.043311346549064</v>
       </c>
       <c r="K4">
-        <v>1.064322230432205</v>
+        <v>1.047878054427502</v>
       </c>
       <c r="L4">
-        <v>1.06159580086049</v>
+        <v>1.045797422649176</v>
       </c>
       <c r="M4">
-        <v>1.073068056723037</v>
+        <v>1.054216721</v>
       </c>
       <c r="N4">
-        <v>1.057958809318371</v>
+        <v>1.044792968330648</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052298873619003</v>
+        <v>1.025886479345121</v>
       </c>
       <c r="D5">
-        <v>1.062182851942739</v>
+        <v>1.039458930121709</v>
       </c>
       <c r="E5">
-        <v>1.059436350899425</v>
+        <v>1.037291343963229</v>
       </c>
       <c r="F5">
-        <v>1.070968838574396</v>
+        <v>1.045936349586603</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03978513368665</v>
+        <v>1.056456273370215</v>
       </c>
       <c r="J5">
-        <v>1.056658497429004</v>
+        <v>1.044212477422919</v>
       </c>
       <c r="K5">
-        <v>1.064551986369305</v>
+        <v>1.048890087722602</v>
       </c>
       <c r="L5">
-        <v>1.061811942357468</v>
+        <v>1.04674574656739</v>
       </c>
       <c r="M5">
-        <v>1.073317555565682</v>
+        <v>1.055298746089816</v>
       </c>
       <c r="N5">
-        <v>1.058159073695777</v>
+        <v>1.045695378913705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052348547730699</v>
+        <v>1.02611578692066</v>
       </c>
       <c r="D6">
-        <v>1.062230000562473</v>
+        <v>1.039666078722124</v>
       </c>
       <c r="E6">
-        <v>1.059481234330429</v>
+        <v>1.037487850296405</v>
       </c>
       <c r="F6">
-        <v>1.071019235074505</v>
+        <v>1.046155024543826</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039793251972835</v>
+        <v>1.056515727908131</v>
       </c>
       <c r="J6">
-        <v>1.056692063276747</v>
+        <v>1.044363037432186</v>
       </c>
       <c r="K6">
-        <v>1.064590555879317</v>
+        <v>1.049059223391191</v>
       </c>
       <c r="L6">
-        <v>1.061848227240975</v>
+        <v>1.04690424332923</v>
       </c>
       <c r="M6">
-        <v>1.073359443725215</v>
+        <v>1.055479613672298</v>
       </c>
       <c r="N6">
-        <v>1.058192687210874</v>
+        <v>1.045846152735455</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052006958520412</v>
+        <v>1.024532998876588</v>
       </c>
       <c r="D7">
-        <v>1.061905803603945</v>
+        <v>1.03823663811017</v>
       </c>
       <c r="E7">
-        <v>1.059172621568264</v>
+        <v>1.036131947853159</v>
       </c>
       <c r="F7">
-        <v>1.070672725797078</v>
+        <v>1.044646197261917</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0397372467735</v>
+        <v>1.056103867116233</v>
       </c>
       <c r="J7">
-        <v>1.056461189980791</v>
+        <v>1.043323437622927</v>
       </c>
       <c r="K7">
-        <v>1.064325300946261</v>
+        <v>1.047891630450374</v>
       </c>
       <c r="L7">
-        <v>1.061598689370751</v>
+        <v>1.045810143463904</v>
       </c>
       <c r="M7">
-        <v>1.073071390792915</v>
+        <v>1.054231233613813</v>
       </c>
       <c r="N7">
-        <v>1.057961486048355</v>
+        <v>1.044805076575222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050578654961054</v>
+        <v>1.017762078160386</v>
       </c>
       <c r="D8">
-        <v>1.060550860311912</v>
+        <v>1.032132003193299</v>
       </c>
       <c r="E8">
-        <v>1.057883025751161</v>
+        <v>1.030343949590079</v>
       </c>
       <c r="F8">
-        <v>1.069225036474263</v>
+        <v>1.038206314671763</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039498614564091</v>
+        <v>1.054305122109893</v>
       </c>
       <c r="J8">
-        <v>1.055494479616423</v>
+        <v>1.038867293565863</v>
       </c>
       <c r="K8">
-        <v>1.063215491063445</v>
+        <v>1.042893629545514</v>
       </c>
       <c r="L8">
-        <v>1.060554762181242</v>
+        <v>1.041128000273888</v>
       </c>
       <c r="M8">
-        <v>1.071866828574561</v>
+        <v>1.048892479992249</v>
       </c>
       <c r="N8">
-        <v>1.056993402844387</v>
+        <v>1.040342604282471</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048059831901262</v>
+        <v>1.005194010725858</v>
       </c>
       <c r="D9">
-        <v>1.058163841966133</v>
+        <v>1.020843437569914</v>
       </c>
       <c r="E9">
-        <v>1.055611947530156</v>
+        <v>1.019651293325939</v>
       </c>
       <c r="F9">
-        <v>1.066676528587947</v>
+        <v>1.026311980000729</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039061027765743</v>
+        <v>1.050828757862252</v>
       </c>
       <c r="J9">
-        <v>1.053784622437176</v>
+        <v>1.030564678949645</v>
       </c>
       <c r="K9">
-        <v>1.061255774066336</v>
+        <v>1.033607159727958</v>
       </c>
       <c r="L9">
-        <v>1.058711848424793</v>
+        <v>1.03243338939821</v>
       </c>
       <c r="M9">
-        <v>1.069742179089864</v>
+        <v>1.038992115450928</v>
       </c>
       <c r="N9">
-        <v>1.055281117471822</v>
+        <v>1.032028199001174</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046379266536783</v>
+        <v>0.9963330978719257</v>
       </c>
       <c r="D10">
-        <v>1.056572881541527</v>
+        <v>1.012916889907836</v>
       </c>
       <c r="E10">
-        <v>1.054098816381255</v>
+        <v>1.012150717648215</v>
       </c>
       <c r="F10">
-        <v>1.064979210005636</v>
+        <v>1.017969313205099</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038757836695275</v>
+        <v>1.048288709340749</v>
       </c>
       <c r="J10">
-        <v>1.05264042638499</v>
+        <v>1.024692961232824</v>
       </c>
       <c r="K10">
-        <v>1.05994655082565</v>
+        <v>1.027056777671226</v>
       </c>
       <c r="L10">
-        <v>1.057480972336878</v>
+        <v>1.026303998844893</v>
       </c>
       <c r="M10">
-        <v>1.068324367131198</v>
+        <v>1.032021532575067</v>
       </c>
       <c r="N10">
-        <v>1.054135296530001</v>
+        <v>1.0261481427717</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.045651236081648</v>
+        <v>0.9923684981587887</v>
       </c>
       <c r="D11">
-        <v>1.055884069386065</v>
+        <v>1.009378806774275</v>
       </c>
       <c r="E11">
-        <v>1.053443833431306</v>
+        <v>1.008804681746151</v>
       </c>
       <c r="F11">
-        <v>1.064244651550685</v>
+        <v>1.014247600545645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038623835825981</v>
+        <v>1.047132055794218</v>
       </c>
       <c r="J11">
-        <v>1.052143959046029</v>
+        <v>1.022062239238525</v>
       </c>
       <c r="K11">
-        <v>1.059378991469379</v>
+        <v>1.024125993735693</v>
       </c>
       <c r="L11">
-        <v>1.056947451977429</v>
+        <v>1.023562443138245</v>
       </c>
       <c r="M11">
-        <v>1.067710111532131</v>
+        <v>1.028905738516445</v>
       </c>
       <c r="N11">
-        <v>1.053638124150473</v>
+        <v>1.023513684850421</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045380762163585</v>
+        <v>0.9908754227322853</v>
       </c>
       <c r="D12">
-        <v>1.05562822639268</v>
+        <v>1.00804770235897</v>
       </c>
       <c r="E12">
-        <v>1.053200575542069</v>
+        <v>1.007546128049621</v>
       </c>
       <c r="F12">
-        <v>1.063971862477444</v>
+        <v>1.012847720203198</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038573653950448</v>
+        <v>1.046693513865761</v>
       </c>
       <c r="J12">
-        <v>1.051959395169657</v>
+        <v>1.021071034971999</v>
       </c>
       <c r="K12">
-        <v>1.059168075801737</v>
+        <v>1.023022328334561</v>
       </c>
       <c r="L12">
-        <v>1.056749197100555</v>
+        <v>1.022530170214311</v>
       </c>
       <c r="M12">
-        <v>1.067481899369457</v>
+        <v>1.02773284918593</v>
       </c>
       <c r="N12">
-        <v>1.053453298172227</v>
+        <v>1.022521072960143</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045438782056388</v>
+        <v>0.9911966389989464</v>
       </c>
       <c r="D13">
-        <v>1.055683105019471</v>
+        <v>1.008334010671946</v>
       </c>
       <c r="E13">
-        <v>1.053252753740268</v>
+        <v>1.007816817704396</v>
       </c>
       <c r="F13">
-        <v>1.064030374009304</v>
+        <v>1.013148807723629</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038584436591699</v>
+        <v>1.04678799215464</v>
       </c>
       <c r="J13">
-        <v>1.051998991709561</v>
+        <v>1.021284300124297</v>
       </c>
       <c r="K13">
-        <v>1.059213322403984</v>
+        <v>1.023259763502596</v>
       </c>
       <c r="L13">
-        <v>1.056791727141589</v>
+        <v>1.022752240399841</v>
       </c>
       <c r="M13">
-        <v>1.067530853931034</v>
+        <v>1.027985156611242</v>
       </c>
       <c r="N13">
-        <v>1.053492950943759</v>
+        <v>1.02273464097342</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04562887966765</v>
+        <v>0.9922455047974216</v>
       </c>
       <c r="D14">
-        <v>1.055862921070056</v>
+        <v>1.009269128171201</v>
       </c>
       <c r="E14">
-        <v>1.05342372500692</v>
+        <v>1.008700974953101</v>
       </c>
       <c r="F14">
-        <v>1.064222101525702</v>
+        <v>1.014132248787739</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03861969609798</v>
+        <v>1.047095989817377</v>
       </c>
       <c r="J14">
-        <v>1.052128706076677</v>
+        <v>1.021980597086315</v>
       </c>
       <c r="K14">
-        <v>1.059361559131876</v>
+        <v>1.02403507645663</v>
       </c>
       <c r="L14">
-        <v>1.056931065833899</v>
+        <v>1.023477404267233</v>
       </c>
       <c r="M14">
-        <v>1.067691248470262</v>
+        <v>1.028809109687146</v>
       </c>
       <c r="N14">
-        <v>1.053622849520155</v>
+        <v>1.023431926756991</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045745998301209</v>
+        <v>0.9928889970259159</v>
       </c>
       <c r="D15">
-        <v>1.055973713326898</v>
+        <v>1.009843013751714</v>
       </c>
       <c r="E15">
-        <v>1.053529070278496</v>
+        <v>1.009243625681498</v>
       </c>
       <c r="F15">
-        <v>1.064340238940893</v>
+        <v>1.014735831318679</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038641366588165</v>
+        <v>1.047284564979963</v>
       </c>
       <c r="J15">
-        <v>1.052208606995359</v>
+        <v>1.022407724104561</v>
       </c>
       <c r="K15">
-        <v>1.059452879569228</v>
+        <v>1.024510752381662</v>
       </c>
       <c r="L15">
-        <v>1.057016906177145</v>
+        <v>1.023922330030266</v>
       </c>
       <c r="M15">
-        <v>1.067790066171763</v>
+        <v>1.029314686404444</v>
       </c>
       <c r="N15">
-        <v>1.053702863907307</v>
+        <v>1.023859660344595</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046427576409644</v>
+        <v>0.9965934190243551</v>
       </c>
       <c r="D16">
-        <v>1.056618597498097</v>
+        <v>1.013149387325045</v>
       </c>
       <c r="E16">
-        <v>1.054142289923851</v>
+        <v>1.012370635804662</v>
       </c>
       <c r="F16">
-        <v>1.065027968466358</v>
+        <v>1.018213920719299</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038766672664798</v>
+        <v>1.048364244590705</v>
       </c>
       <c r="J16">
-        <v>1.052673353725664</v>
+        <v>1.024865629457849</v>
       </c>
       <c r="K16">
-        <v>1.059984204016047</v>
+        <v>1.02724922330508</v>
       </c>
       <c r="L16">
-        <v>1.057516368879841</v>
+        <v>1.026484037384699</v>
       </c>
       <c r="M16">
-        <v>1.068365126209425</v>
+        <v>1.032226188637354</v>
       </c>
       <c r="N16">
-        <v>1.054168270631276</v>
+        <v>1.02632105620541</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046855022267725</v>
+        <v>0.9988820480244027</v>
       </c>
       <c r="D17">
-        <v>1.057023138749745</v>
+        <v>1.015194370934102</v>
       </c>
       <c r="E17">
-        <v>1.054527003365023</v>
+        <v>1.014305194202832</v>
       </c>
       <c r="F17">
-        <v>1.065459467754164</v>
+        <v>1.020365660299318</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03884454656916</v>
+        <v>1.049026037250577</v>
       </c>
       <c r="J17">
-        <v>1.052964603128968</v>
+        <v>1.026383255370596</v>
       </c>
       <c r="K17">
-        <v>1.060317313798563</v>
+        <v>1.028941131439365</v>
       </c>
       <c r="L17">
-        <v>1.057829523224666</v>
+        <v>1.028066965960418</v>
       </c>
       <c r="M17">
-        <v>1.068725756740976</v>
+        <v>1.034025785984783</v>
       </c>
       <c r="N17">
-        <v>1.054459933642139</v>
+        <v>1.027840837321028</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047104311973793</v>
+        <v>1.000204728997731</v>
       </c>
       <c r="D18">
-        <v>1.057259108952306</v>
+        <v>1.016377035603015</v>
       </c>
       <c r="E18">
-        <v>1.054751420743454</v>
+        <v>1.015424177516611</v>
       </c>
       <c r="F18">
-        <v>1.065711191795156</v>
+        <v>1.021610264892057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038889706920864</v>
+        <v>1.049406596788384</v>
       </c>
       <c r="J18">
-        <v>1.053134385292325</v>
+        <v>1.027260004148326</v>
       </c>
       <c r="K18">
-        <v>1.060511547712552</v>
+        <v>1.029918943578982</v>
       </c>
       <c r="L18">
-        <v>1.058012128481773</v>
+        <v>1.028981876900831</v>
       </c>
       <c r="M18">
-        <v>1.068936074245692</v>
+        <v>1.035066119225268</v>
       </c>
       <c r="N18">
-        <v>1.054629956915643</v>
+        <v>1.028718831182586</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047189307876373</v>
+        <v>1.00065368959697</v>
       </c>
       <c r="D19">
-        <v>1.057339570077288</v>
+        <v>1.016778602924761</v>
       </c>
       <c r="E19">
-        <v>1.054827944754323</v>
+        <v>1.015804152440693</v>
       </c>
       <c r="F19">
-        <v>1.065797029606759</v>
+        <v>1.022032897765572</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038905060956392</v>
+        <v>1.049535443766488</v>
       </c>
       <c r="J19">
-        <v>1.053192259887189</v>
+        <v>1.027557541096029</v>
       </c>
       <c r="K19">
-        <v>1.06057776571037</v>
+        <v>1.030250842170544</v>
       </c>
       <c r="L19">
-        <v>1.058074383274775</v>
+        <v>1.029292438743897</v>
       </c>
       <c r="M19">
-        <v>1.069007781625468</v>
+        <v>1.03541928759003</v>
       </c>
       <c r="N19">
-        <v>1.054687913699069</v>
+        <v>1.029016790666883</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046809164711316</v>
+        <v>0.9986377742881688</v>
       </c>
       <c r="D20">
-        <v>1.056979734461405</v>
+        <v>1.014976019319561</v>
       </c>
       <c r="E20">
-        <v>1.054485725129512</v>
+        <v>1.014098614372668</v>
       </c>
       <c r="F20">
-        <v>1.065413168055008</v>
+        <v>1.020135889159411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038836218552869</v>
+        <v>1.048955599803039</v>
       </c>
       <c r="J20">
-        <v>1.052933365032641</v>
+        <v>1.026221308634238</v>
       </c>
       <c r="K20">
-        <v>1.060281580828596</v>
+        <v>1.028760547671379</v>
       </c>
       <c r="L20">
-        <v>1.057795930144977</v>
+        <v>1.027898005475634</v>
       </c>
       <c r="M20">
-        <v>1.068687067827693</v>
+        <v>1.033833678707388</v>
       </c>
       <c r="N20">
-        <v>1.054428651184132</v>
+        <v>1.027678660601729</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045572902072687</v>
+        <v>0.9919372149751613</v>
       </c>
       <c r="D21">
-        <v>1.055809969380782</v>
+        <v>1.008994234443485</v>
       </c>
       <c r="E21">
-        <v>1.053373377348804</v>
+        <v>1.008441053557103</v>
       </c>
       <c r="F21">
-        <v>1.064165640933652</v>
+        <v>1.013843141068316</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038609324312797</v>
+        <v>1.047005541304789</v>
       </c>
       <c r="J21">
-        <v>1.052090512675312</v>
+        <v>1.021775949081257</v>
       </c>
       <c r="K21">
-        <v>1.059317909840167</v>
+        <v>1.02380718857162</v>
       </c>
       <c r="L21">
-        <v>1.056890036316988</v>
+        <v>1.023264253013683</v>
       </c>
       <c r="M21">
-        <v>1.067644017665539</v>
+        <v>1.028566912745796</v>
       </c>
       <c r="N21">
-        <v>1.053584601879779</v>
+        <v>1.023226988128292</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044795319298037</v>
+        <v>0.9876053096082245</v>
       </c>
       <c r="D22">
-        <v>1.055074563952352</v>
+        <v>1.005134895473225</v>
       </c>
       <c r="E22">
-        <v>1.052674184931183</v>
+        <v>1.004792643216665</v>
       </c>
       <c r="F22">
-        <v>1.063381610302031</v>
+        <v>1.009784974579537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038464306524302</v>
+        <v>1.045727705508786</v>
       </c>
       <c r="J22">
-        <v>1.051559688030377</v>
+        <v>1.018899325190318</v>
       </c>
       <c r="K22">
-        <v>1.058711439639191</v>
+        <v>1.02060531082162</v>
       </c>
       <c r="L22">
-        <v>1.056319992396624</v>
+        <v>1.020269751063295</v>
       </c>
       <c r="M22">
-        <v>1.066987919622891</v>
+        <v>1.02516504989475</v>
       </c>
       <c r="N22">
-        <v>1.053053023402962</v>
+        <v>1.020346279101474</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04520755888352</v>
+        <v>0.9899134607417148</v>
       </c>
       <c r="D23">
-        <v>1.055464409480088</v>
+        <v>1.007190483836059</v>
       </c>
       <c r="E23">
-        <v>1.053044822559139</v>
+        <v>1.006735717043322</v>
       </c>
       <c r="F23">
-        <v>1.063797207694063</v>
+        <v>1.01194629692394</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038541406858838</v>
+        <v>1.046410150523881</v>
       </c>
       <c r="J23">
-        <v>1.051841172615302</v>
+        <v>1.020432295912672</v>
       </c>
       <c r="K23">
-        <v>1.059032995235095</v>
+        <v>1.022311285979503</v>
       </c>
       <c r="L23">
-        <v>1.056622228288166</v>
+        <v>1.021865160891039</v>
       </c>
       <c r="M23">
-        <v>1.067335757247066</v>
+        <v>1.02697733435584</v>
       </c>
       <c r="N23">
-        <v>1.053334907728285</v>
+        <v>1.021881426818088</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046829885866417</v>
+        <v>0.9987481888006335</v>
       </c>
       <c r="D24">
-        <v>1.056999346965659</v>
+        <v>1.015074714276407</v>
       </c>
       <c r="E24">
-        <v>1.054504376923717</v>
+        <v>1.014191987923239</v>
       </c>
       <c r="F24">
-        <v>1.065434088779083</v>
+        <v>1.02023974512137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038839982434989</v>
+        <v>1.048987444276994</v>
       </c>
       <c r="J24">
-        <v>1.052947480488493</v>
+        <v>1.026294511469871</v>
       </c>
       <c r="K24">
-        <v>1.060297727215285</v>
+        <v>1.028842173605024</v>
       </c>
       <c r="L24">
-        <v>1.057811109573352</v>
+        <v>1.027974377298314</v>
       </c>
       <c r="M24">
-        <v>1.06870454978151</v>
+        <v>1.033920512518745</v>
       </c>
       <c r="N24">
-        <v>1.054442786685551</v>
+        <v>1.027751967393784</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048711244067414</v>
+        <v>1.00852393176565</v>
       </c>
       <c r="D25">
-        <v>1.058780875894403</v>
+        <v>1.023829059744603</v>
       </c>
       <c r="E25">
-        <v>1.056198914079027</v>
+        <v>1.022478049030721</v>
       </c>
       <c r="F25">
-        <v>1.067335081785196</v>
+        <v>1.029456202008656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039176177023482</v>
+        <v>1.051765425648338</v>
       </c>
       <c r="J25">
-        <v>1.054227418195777</v>
+        <v>1.032767797815128</v>
       </c>
       <c r="K25">
-        <v>1.061762892061825</v>
+        <v>1.036068388690275</v>
       </c>
       <c r="L25">
-        <v>1.059188685772316</v>
+        <v>1.034737163004717</v>
       </c>
       <c r="M25">
-        <v>1.070291695217539</v>
+        <v>1.041613831400744</v>
       </c>
       <c r="N25">
-        <v>1.05572454205119</v>
+        <v>1.034234446548148</v>
       </c>
     </row>
   </sheetData>
